--- a/database/sidis/expdata/9088.xlsx
+++ b/database/sidis/expdata/9088.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3F8CB-92AC-4EF5-B813-6137178F254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A77044-082C-B64E-8328-A37C99B00F84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18264" yWindow="1368" windowWidth="13170" windowHeight="11520" xr2:uid="{70768FF3-9B60-491F-9BC9-A45157AC23B7}"/>
+    <workbookView xWindow="15620" yWindow="1360" windowWidth="13180" windowHeight="11520" xr2:uid="{70768FF3-9B60-491F-9BC9-A45157AC23B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>x</t>
   </si>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>xmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -173,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CB5FA3-40DC-4ECF-A303-396DA09AD430}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="P2" sqref="P2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -554,8 +551,11 @@
       <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1.3</v>
       </c>
@@ -601,8 +601,11 @@
       <c r="O2" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.72</v>
       </c>
@@ -648,8 +651,11 @@
       <c r="O3" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.14</v>
       </c>
@@ -695,8 +701,11 @@
       <c r="O4" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.58</v>
       </c>
@@ -742,8 +751,11 @@
       <c r="O5" s="1">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.19</v>
       </c>
@@ -789,8 +801,11 @@
       <c r="O6" s="1">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -836,8 +851,11 @@
       <c r="O7" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.14</v>
       </c>
@@ -883,8 +901,11 @@
       <c r="O8" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -901,7 +922,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -918,7 +939,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -935,7 +956,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -952,7 +973,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -969,7 +990,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -986,7 +1007,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1003,7 +1024,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1020,7 +1041,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1037,7 +1058,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1054,7 +1075,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1071,7 +1092,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1088,7 +1109,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1105,7 +1126,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1122,7 +1143,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1139,7 +1160,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1156,7 +1177,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1173,7 +1194,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1190,7 +1211,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1207,7 +1228,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="G29" s="2"/>
